--- a/ТВИМС/3/3 лаба 2 вариант.xlsx
+++ b/ТВИМС/3/3 лаба 2 вариант.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3-sem\ТВИМС\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58411116-36B5-4D80-BC8A-75BD3E055D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA745D93-A5E5-4A0B-9172-CA39C7F4B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB8E974E-869C-4943-B61C-CB9285DBE002}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
   <si>
     <t>вариант 2</t>
   </si>
@@ -136,14 +136,135 @@
     <t>Поскольку t расчетное меньше t табличного, то принимаем H0</t>
   </si>
   <si>
-    <t>H0 - средняя прочность соединений, выполненная двумя методами, не отличается</t>
+    <t>задание 2</t>
+  </si>
+  <si>
+    <t>Проверяется гипотеза о  сравении математических ожиданий</t>
+  </si>
+  <si>
+    <t>Сравнивается значения параметров двух выборок</t>
+  </si>
+  <si>
+    <t>Выборки зависимы</t>
+  </si>
+  <si>
+    <t>H1: a != 0</t>
+  </si>
+  <si>
+    <t>H0: средняя прочность соединений, выполненная двумя методами, не отличается: a = 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tрасч &lt; tтабл -&gt; гипотеза H0 принимается </t>
+  </si>
+  <si>
+    <t>Проверяется гипотеза о равенстве средних значений (математических ожиданий)</t>
+  </si>
+  <si>
+    <t>Сравниваются средние значения двух выборок</t>
+  </si>
+  <si>
+    <t>станок 1</t>
+  </si>
+  <si>
+    <t>станок 2</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>x среднее</t>
+  </si>
+  <si>
+    <t>H0: a1 = a2</t>
+  </si>
+  <si>
+    <t>Альтернативная: a1 != a2</t>
+  </si>
+  <si>
+    <t>Выборки независимы</t>
+  </si>
+  <si>
+    <t>u расч</t>
+  </si>
+  <si>
+    <t>u табл</t>
+  </si>
+  <si>
+    <t>Это означает, что средние значения диаметров изделий, изготовленных на двух станках, статистически значимо различаются</t>
+  </si>
+  <si>
+    <t>задание 3</t>
+  </si>
+  <si>
+    <t>Проверяется гипотеза о сравнении Математических ожиданий</t>
+  </si>
+  <si>
+    <t>Значения параметров двух выборок</t>
+  </si>
+  <si>
+    <t>H0: a Хумасон - а Майал = 0</t>
+  </si>
+  <si>
+    <t>Номер по каталогу NGC</t>
+  </si>
+  <si>
+    <t>М.Л. Хумасон</t>
+  </si>
+  <si>
+    <t>Н.В. Майал</t>
+  </si>
+  <si>
+    <t>xi1-xi2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Дисперсия </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>^2</t>
+    </r>
+  </si>
+  <si>
+    <t>средняя дельта</t>
+  </si>
+  <si>
+    <t>Dв=</t>
+  </si>
+  <si>
+    <t>S^2=</t>
+  </si>
+  <si>
+    <t>tрасч</t>
+  </si>
+  <si>
+    <t>tтабл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tрасч &lt; t табл, зн, нет оснований отвергнуть E43H0 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,8 +282,39 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,15 +387,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -253,6 +424,143 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>10518</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1343202</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9E317AA-D0D2-4FD0-B1E8-F3A578F78AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="6191250"/>
+          <a:ext cx="7116168" cy="1267002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181341</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE70C128-BFE1-4044-8118-A7551FE2A43C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="8315325"/>
+          <a:ext cx="2619741" cy="866896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208636</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6B0C45F-0BCA-4F73-8DAD-0A177368EA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="10410825"/>
+          <a:ext cx="7314286" cy="1695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,326 +860,831 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEC1B79-0917-40A1-9FB2-7FF044C53152}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="19.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="6">
         <v>16</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="6">
         <v>20</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="6">
         <v>14</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="6">
         <v>15</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="6">
         <v>19</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="6">
         <v>18</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="6">
         <v>18</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="6">
         <v>17</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="6">
         <v>19</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="6">
         <v>18</v>
       </c>
-      <c r="N4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="N4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="6">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>14</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="6">
         <v>19</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="6">
         <v>15</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="6">
         <v>14</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="6">
         <v>10</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="6">
         <v>17</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="6">
         <v>13</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="6">
         <v>21</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="N5" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f>COUNT(C4:L4)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="6">
         <f>C4-C5</f>
         <v>3</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <f t="shared" ref="D8:L8" si="0">D4-D5</f>
         <v>6</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="6">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="G10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <f>(1/C7)*SUM(C8:L8)</f>
         <v>2.3000000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="G11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" cm="1">
+      <c r="C12" s="4" cm="1">
         <f t="array" ref="C12">(1/C7)*SUM((C8:L8-C11)^2)</f>
         <v>13.610000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="G12" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <f>C7/(C7-1)*C12</f>
         <v>15.122222222222225</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <f>C11/SQRT(C13/C7)</f>
         <v>1.8703377008862212</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f>_xlfn.T.INV.2T(0.05,C7-1)</f>
         <v>2.2621571627982053</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="G14" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
+    <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="9">
         <v>17.399999999999999</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="9">
         <v>15.1</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="9">
         <v>3.6000000000000103</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="9">
         <v>10.10000000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="9">
         <v>10</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="9">
         <v>-0.11793033365451719</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="9">
         <v>0</v>
       </c>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="9">
         <v>9</v>
       </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="9">
         <v>1.8703377008862212</v>
       </c>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="9">
         <v>4.7123920925732227E-2</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="3" t="s">
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="9">
         <v>1.8331129326562374</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="3" t="s">
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="9">
         <v>9.4247841851464453E-2</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4" t="s">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="10">
         <v>2.2621571627982053</v>
       </c>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="D28" s="10"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="11"/>
+      <c r="C38" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="12">
+        <v>1.07</v>
+      </c>
+      <c r="D39" s="12">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="12">
+        <v>15</v>
+      </c>
+      <c r="D40" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="11">
+        <v>45.3</v>
+      </c>
+      <c r="D41" s="11">
+        <v>46.1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="4">
+        <f>ABS(C41-D41)/(SQRT(C39/C40+D39/D40))</f>
+        <v>2.0298206013881588</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="4">
+        <f>_xlfn.NORM.S.INV(1-0.05/2)</f>
+        <v>1.9599639845400536</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B62" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B64" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="6">
+        <v>1332</v>
+      </c>
+      <c r="D64" s="6">
+        <v>3607</v>
+      </c>
+      <c r="E64" s="6">
+        <v>3998</v>
+      </c>
+      <c r="F64" s="6">
+        <v>4111</v>
+      </c>
+      <c r="G64" s="6">
+        <v>5308</v>
+      </c>
+      <c r="H64" s="6">
+        <v>5866</v>
+      </c>
+      <c r="I64" s="6">
+        <v>6661</v>
+      </c>
+      <c r="J64" s="6">
+        <v>6703</v>
+      </c>
+      <c r="K64" s="6">
+        <v>7625</v>
+      </c>
+      <c r="L64" s="6">
+        <v>7679</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B65" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C65" s="6">
+        <v>1507</v>
+      </c>
+      <c r="D65" s="6">
+        <v>858</v>
+      </c>
+      <c r="E65" s="6">
+        <v>1205</v>
+      </c>
+      <c r="F65" s="6">
+        <v>832</v>
+      </c>
+      <c r="G65" s="6">
+        <v>2206</v>
+      </c>
+      <c r="H65" s="6">
+        <v>924</v>
+      </c>
+      <c r="I65" s="6">
+        <v>4607</v>
+      </c>
+      <c r="J65" s="6">
+        <v>2592</v>
+      </c>
+      <c r="K65" s="6">
+        <v>1930</v>
+      </c>
+      <c r="L65" s="6">
+        <v>5378</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B66" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="6">
+        <v>1471</v>
+      </c>
+      <c r="D66" s="6">
+        <v>778</v>
+      </c>
+      <c r="E66" s="6">
+        <v>1155</v>
+      </c>
+      <c r="F66" s="6">
+        <v>915</v>
+      </c>
+      <c r="G66" s="6">
+        <v>2194</v>
+      </c>
+      <c r="H66" s="6">
+        <v>1033</v>
+      </c>
+      <c r="I66" s="6">
+        <v>4430</v>
+      </c>
+      <c r="J66" s="6">
+        <v>2670</v>
+      </c>
+      <c r="K66" s="6">
+        <v>2050</v>
+      </c>
+      <c r="L66" s="6">
+        <v>5278</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B68" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="6">
+        <v>1332</v>
+      </c>
+      <c r="D68" s="6">
+        <v>3607</v>
+      </c>
+      <c r="E68" s="6">
+        <v>3998</v>
+      </c>
+      <c r="F68" s="6">
+        <v>4111</v>
+      </c>
+      <c r="G68" s="6">
+        <v>5308</v>
+      </c>
+      <c r="H68" s="6">
+        <v>5866</v>
+      </c>
+      <c r="I68" s="6">
+        <v>6661</v>
+      </c>
+      <c r="J68" s="6">
+        <v>6703</v>
+      </c>
+      <c r="K68" s="6">
+        <v>7625</v>
+      </c>
+      <c r="L68" s="6">
+        <v>7679</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B69" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="6">
+        <f>C65-C66</f>
+        <v>36</v>
+      </c>
+      <c r="D69" s="6">
+        <f>D65-D66</f>
+        <v>80</v>
+      </c>
+      <c r="E69" s="6">
+        <f>E65-E66</f>
+        <v>50</v>
+      </c>
+      <c r="F69" s="6">
+        <f>F65-F66</f>
+        <v>-83</v>
+      </c>
+      <c r="G69" s="6">
+        <f>G65-G66</f>
+        <v>12</v>
+      </c>
+      <c r="H69" s="6">
+        <f>H65-H66</f>
+        <v>-109</v>
+      </c>
+      <c r="I69" s="6">
+        <f>I65-I66</f>
+        <v>177</v>
+      </c>
+      <c r="J69" s="6">
+        <f>J65-J66</f>
+        <v>-78</v>
+      </c>
+      <c r="K69" s="6">
+        <f>K65-K66</f>
+        <v>-120</v>
+      </c>
+      <c r="L69" s="6">
+        <f>L65-L66</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="4">
+        <f>COUNT(C65:L65)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="4">
+        <f>SUM(C69:L69)/C70</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B72" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="4" cm="1">
+        <f t="array" ref="C72">SUM((C69:L69-C71)^2)/C70</f>
+        <v>9050.0499999999993</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B73" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="4">
+        <f>C71/(C71-1)*C72</f>
+        <v>10695.513636363636</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B74" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="4">
+        <f>C71/SQRT(C73/C70)</f>
+        <v>0.19875246963204951</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B75" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C75" s="4">
+        <f>_xlfn.T.INV.2T(0.05,9)</f>
+        <v>2.2621571627982053</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77"/>
+      <c r="D77"/>
+    </row>
+    <row r="78" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2203.9</v>
+      </c>
+      <c r="D80" s="1">
+        <v>2197.4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2543402.0999999996</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2372112.9333333331</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="1">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0.99856076617953327</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="1">
+        <v>9</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0.2049788829395523</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="1">
+        <v>0.42107475450801263</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="1">
+        <v>1.8331129326562374</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0.84214950901602526</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="2">
+        <v>2.2621571627982053</v>
+      </c>
+      <c r="D90" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ТВИМС/3/3 лаба 2 вариант.xlsx
+++ b/ТВИМС/3/3 лаба 2 вариант.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\3-sem\ТВИМС\3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Force\Documents\University\3sem\ТВИМС\3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA745D93-A5E5-4A0B-9172-CA39C7F4B24B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA878E4F-2E66-43EB-9B07-62771E5D2A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EB8E974E-869C-4943-B61C-CB9285DBE002}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
   <si>
     <t>вариант 2</t>
   </si>
@@ -257,24 +257,15 @@
     <t>tтабл</t>
   </si>
   <si>
-    <t xml:space="preserve">tрасч &lt; t табл, зн, нет оснований отвергнуть E43H0 </t>
+    <t xml:space="preserve">tрасч &lt; t табл, зн, нет оснований отвергнуть H0 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -387,28 +378,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -862,825 +848,769 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADEC1B79-0917-40A1-9FB2-7FF044C53152}">
   <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="19.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>16</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="3">
         <v>14</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="3">
         <v>15</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>19</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="3">
         <v>18</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>18</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>17</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="3">
         <v>19</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>18</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>13</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>14</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>19</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="3">
         <v>15</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>14</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="3">
         <v>10</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>17</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>13</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="3">
         <v>21</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="3">
         <v>15</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <f>COUNT(C4:L4)</f>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <f>C4-C5</f>
         <v>3</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <f t="shared" ref="D8:L8" si="0">D4-D5</f>
         <v>6</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="1">
         <f>(1/C7)*SUM(C8:L8)</f>
         <v>2.3000000000000003</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" cm="1">
+      <c r="C12" s="1" cm="1">
         <f t="array" ref="C12">(1/C7)*SUM((C8:L8-C11)^2)</f>
         <v>13.610000000000003</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="1">
         <f>C7/(C7-1)*C12</f>
         <v>15.122222222222225</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="1">
         <f>C11/SQRT(C13/C7)</f>
         <v>1.8703377008862212</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="1">
         <f>_xlfn.T.INV.2T(0.05,C7-1)</f>
         <v>2.2621571627982053</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="6">
         <v>17.399999999999999</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="6">
         <v>15.1</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>3.6000000000000103</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <v>10.10000000000001</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="6">
         <v>10</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="6">
         <v>-0.11793033365451719</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>0</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>9</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>1.8703377008862212</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>4.7123920925732227E-2</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>1.8331129326562374</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>9.4247841851464453E-2</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="7">
         <v>2.2621571627982053</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="113.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I34" s="4" t="s">
+      <c r="I34" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="I35" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="7" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="12">
+      <c r="C39" s="9">
         <v>1.07</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="9">
         <v>0.84</v>
       </c>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="12">
+      <c r="C40" s="9">
         <v>15</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="8">
         <v>45.3</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="8">
         <v>46.1</v>
       </c>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="1">
         <f>ABS(C41-D41)/(SQRT(C39/C40+D39/D40))</f>
         <v>2.0298206013881588</v>
       </c>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C43" s="4">
+      <c r="C43" s="1">
         <f>_xlfn.NORM.S.INV(1-0.05/2)</f>
         <v>1.9599639845400536</v>
       </c>
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="3">
         <v>1332</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="3">
         <v>3607</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="3">
         <v>3998</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="3">
         <v>4111</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="3">
         <v>5308</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="3">
         <v>5866</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="3">
         <v>6661</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="3">
         <v>6703</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="3">
         <v>7625</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="3">
         <v>7679</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="3">
         <v>1507</v>
       </c>
-      <c r="D65" s="6">
+      <c r="D65" s="3">
         <v>858</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="3">
         <v>1205</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="3">
         <v>832</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="3">
         <v>2206</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="3">
         <v>924</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="3">
         <v>4607</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="3">
         <v>2592</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="3">
         <v>1930</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="3">
         <v>5378</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="3">
         <v>1471</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="3">
         <v>778</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="3">
         <v>1155</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="3">
         <v>915</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="3">
         <v>2194</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="3">
         <v>1033</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="3">
         <v>4430</v>
       </c>
-      <c r="J66" s="6">
+      <c r="J66" s="3">
         <v>2670</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="3">
         <v>2050</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66" s="3">
         <v>5278</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="3">
         <v>1332</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="3">
         <v>3607</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="3">
         <v>3998</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="3">
         <v>4111</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="3">
         <v>5308</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68" s="3">
         <v>5866</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="3">
         <v>6661</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="3">
         <v>6703</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="3">
         <v>7625</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="3">
         <v>7679</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="6">
-        <f>C65-C66</f>
+      <c r="C69" s="3">
+        <f t="shared" ref="C69:L69" si="1">C65-C66</f>
         <v>36</v>
       </c>
-      <c r="D69" s="6">
-        <f>D65-D66</f>
+      <c r="D69" s="3">
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="E69" s="6">
-        <f>E65-E66</f>
+      <c r="E69" s="3">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="F69" s="6">
-        <f>F65-F66</f>
+      <c r="F69" s="3">
+        <f t="shared" si="1"/>
         <v>-83</v>
       </c>
-      <c r="G69" s="6">
-        <f>G65-G66</f>
+      <c r="G69" s="3">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="H69" s="6">
-        <f>H65-H66</f>
+      <c r="H69" s="3">
+        <f t="shared" si="1"/>
         <v>-109</v>
       </c>
-      <c r="I69" s="6">
-        <f>I65-I66</f>
+      <c r="I69" s="3">
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="J69" s="6">
-        <f>J65-J66</f>
+      <c r="J69" s="3">
+        <f t="shared" si="1"/>
         <v>-78</v>
       </c>
-      <c r="K69" s="6">
-        <f>K65-K66</f>
+      <c r="K69" s="3">
+        <f t="shared" si="1"/>
         <v>-120</v>
       </c>
-      <c r="L69" s="6">
-        <f>L65-L66</f>
+      <c r="L69" s="3">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="1">
         <f>COUNT(C65:L65)</f>
         <v>10</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="1">
         <f>SUM(C69:L69)/C70</f>
         <v>6.5</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="4" cm="1">
+      <c r="C72" s="1" cm="1">
         <f t="array" ref="C72">SUM((C69:L69-C71)^2)/C70</f>
         <v>9050.0499999999993</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="4">
+      <c r="C73" s="1">
         <f>C71/(C71-1)*C72</f>
         <v>10695.513636363636</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="4">
+      <c r="C74" s="1">
         <f>C71/SQRT(C73/C70)</f>
         <v>0.19875246963204951</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="4">
+      <c r="C75" s="1">
         <f>_xlfn.T.INV.2T(0.05,9)</f>
         <v>2.2621571627982053</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
+      <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
     </row>
-    <row r="78" spans="2:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B79" s="3"/>
-      <c r="C79" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="1">
-        <v>2203.9</v>
-      </c>
-      <c r="D80" s="1">
-        <v>2197.4</v>
-      </c>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="1">
-        <v>2543402.0999999996</v>
-      </c>
-      <c r="D81" s="1">
-        <v>2372112.9333333331</v>
-      </c>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="1">
-        <v>10</v>
-      </c>
-      <c r="D82" s="1">
-        <v>10</v>
-      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C83" s="1">
-        <v>0.99856076617953327</v>
-      </c>
-      <c r="D83" s="1"/>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="1">
-        <v>0</v>
-      </c>
-      <c r="D84" s="1"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C85" s="1">
-        <v>9</v>
-      </c>
-      <c r="D85" s="1"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="1">
-        <v>0.2049788829395523</v>
-      </c>
-      <c r="D86" s="1"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="1">
-        <v>0.42107475450801263</v>
-      </c>
-      <c r="D87" s="1"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C88" s="1">
-        <v>1.8331129326562374</v>
-      </c>
-      <c r="D88" s="1"/>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B89" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C89" s="1">
-        <v>0.84214950901602526</v>
-      </c>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="2:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="2">
-        <v>2.2621571627982053</v>
-      </c>
-      <c r="D90" s="2"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
